--- a/Terminal Procedure/zuck.xlsx
+++ b/Terminal Procedure/zuck.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192F33F4-5E1E-4EE7-86A7-00462C04C34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2137015A-3E58-48B3-8EE2-1E7C0AF6679F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="1044" windowWidth="13068" windowHeight="11316" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="appr 03u" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="58">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,11 +235,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CK702</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FL30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -577,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -664,10 +664,14 @@
         <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
@@ -676,14 +680,10 @@
         <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
@@ -692,59 +692,65 @@
         <v>51</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>79</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>79</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="D8" s="1">
+        <v>3100</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1">
-        <v>3100</v>
-      </c>
-      <c r="E9" s="1"/>
+        <v>220</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -752,18 +758,20 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1">
-        <v>220</v>
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -780,14 +788,36 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{9AA557AA-CBCB-42BD-82A4-F5302A1BDA55}"/>
+    <hyperlink ref="C10" r:id="rId2" xr:uid="{C0BF37A8-A055-4C1D-8FB8-BDC79CFE6B3F}"/>
+    <hyperlink ref="C12" r:id="rId3" xr:uid="{CAB5D55E-8EA3-44BC-BC24-709EF1C14A1B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -906,10 +936,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86349E24-8E83-442C-B246-E004153C3A66}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView zoomScale="127" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -958,6 +988,12 @@
       <c r="D3" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -991,16 +1027,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>54</v>
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1008,7 +1050,41 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Terminal Procedure/zuck.xlsx
+++ b/Terminal Procedure/zuck.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2137015A-3E58-48B3-8EE2-1E7C0AF6679F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834DBBD2-4DF4-4E4A-963D-1366837107A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="1044" windowWidth="13068" windowHeight="11316" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="appr 03u" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="59">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,10 +183,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -240,6 +236,14 @@
   </si>
   <si>
     <t>FL30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -579,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -601,8 +605,8 @@
       <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1">
-        <v>3700</v>
+      <c r="F1" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="G1" s="1">
         <v>1</v>
@@ -621,7 +625,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -641,7 +645,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
@@ -661,23 +665,23 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
@@ -689,7 +693,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
@@ -749,7 +753,7 @@
         <v>220</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="1"/>
     </row>
@@ -825,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B3D573-06F9-48CD-9FAC-97CA9813E99D}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -847,8 +851,8 @@
       <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1">
-        <v>3700</v>
+      <c r="F1" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="G1" s="1">
         <v>1</v>
@@ -887,7 +891,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
@@ -897,7 +901,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>34</v>
@@ -907,7 +911,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>37</v>
@@ -919,7 +923,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>39</v>
@@ -939,7 +943,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView zoomScale="127" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -961,13 +965,13 @@
         <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -977,10 +981,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>13</v>
@@ -992,23 +996,23 @@
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1016,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1030,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -1042,7 +1046,7 @@
         <v>12</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1050,13 +1054,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1064,7 +1068,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1072,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>13</v>
@@ -1084,7 +1088,7 @@
         <v>12</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Terminal Procedure/zuck.xlsx
+++ b/Terminal Procedure/zuck.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834DBBD2-4DF4-4E4A-963D-1366837107A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD12102-CA27-4B6F-9F22-7A6155D025BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="13068" windowHeight="11316" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="appr 03u" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="60">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,6 +244,10 @@
   </si>
   <si>
     <t>-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_QED</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -581,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -811,6 +815,11 @@
       </c>
       <c r="F12" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -827,10 +836,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B3D573-06F9-48CD-9FAC-97CA9813E99D}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -930,6 +939,11 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -940,10 +954,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86349E24-8E83-442C-B246-E004153C3A66}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView zoomScale="127" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1091,6 +1105,11 @@
         <v>56</v>
       </c>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Terminal Procedure/zuck.xlsx
+++ b/Terminal Procedure/zuck.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD12102-CA27-4B6F-9F22-7A6155D025BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E48ACE-2AA9-4C02-AA9C-5BB536E5E8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="13068" windowHeight="11316" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="appr 03u" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="63">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,6 +248,18 @@
   </si>
   <si>
     <t>_QED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CKM07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CKM06</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,7 +599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -836,10 +848,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B3D573-06F9-48CD-9FAC-97CA9813E99D}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -942,6 +954,107 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>59</v>
       </c>
     </row>
